--- a/data/nuc_cell_seg_delivery_20170210/auxiliary_spreadsheets/imageID_ometif_20160705_S03.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/auxiliary_spreadsheets/imageID_ometif_20160705_S03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ImageID</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>20160705_S03_059.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060.ome.tif</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A60"/>
+      <selection sqref="A1:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,6 +831,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
